--- a/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,21%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>33,97; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>44,57; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>18,87; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>67,86; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>42,94; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>49,93; 90,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>71,87; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>73,83; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>70,63; 93,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>48,47; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>75,65; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,94%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>30,05; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>51,1; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>42,28; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>41,63; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>62,33; 95,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>68,02; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>70,77; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>78,27; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>76,73; 97,39</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>81,6; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>65,46; 93,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>65,62; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>81,11; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>80,19; 97,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>79,08; 96,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,24%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>87,85; 98,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>74,65; 91,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>86,59; 98,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>85,91; 98,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>88,43; 99,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>87,13; 98,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>89,62; 98,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>84,42; 94,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>89,94; 98,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,06; 94,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,61; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,56; 95,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,93; 90,83</t>
+          <t>39,0; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,87; 100,0</t>
+          <t>44,65; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,63; 93,56</t>
+          <t>55,66; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,06; 94,14</t>
+          <t>47,11; 93,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,12 +706,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,61; 100,0</t>
+          <t>79,04; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,97; 100,0</t>
+          <t>26,45; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,19 +721,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,56; 95,04</t>
+          <t>72,52; 95,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,57; 100,0</t>
+          <t>43,13; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +911,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -940,7 +941,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,86; 100,0</t>
+          <t>68,21; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,94; 100,0</t>
+          <t>31,79; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,0; 100,0</t>
+          <t>38,28; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1036,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,65; 100,0</t>
+          <t>43,95; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,83; 100,0</t>
+          <t>71,84; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,66; 100,0</t>
+          <t>53,13; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,47; 100,0</t>
+          <t>53,33; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1160,7 +1161,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,65; 100,0</t>
+          <t>77,5; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1240,49 +1241,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>23,59; 100,0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>63,75; 100</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28,33; 100,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>63,75; 100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>30,05; 100,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,1; 100,0</t>
+          <t>48,12; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,28; 100,0</t>
+          <t>42,25; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,63; 100,0</t>
+          <t>42,8; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1355,7 +1356,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62,33; 95,16</t>
+          <t>61,83; 95,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1365,12 +1366,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,02; 100,0</t>
+          <t>68,83; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,77; 100,0</t>
+          <t>71,39; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1380,12 +1381,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>78,27; 100,0</t>
+          <t>77,65; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>76,73; 97,39</t>
+          <t>75,71; 97,4</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,6; 100,0</t>
+          <t>80,33; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>65,46; 93,46</t>
+          <t>66,85; 93,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>65,62; 100,0</t>
+          <t>68,77; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>81,11; 100,0</t>
+          <t>81,2; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,19; 97,94</t>
+          <t>81,81; 97,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>79,08; 96,39</t>
+          <t>78,21; 96,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,61</t>
+          <t>87,98; 98,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>74,65; 91,91</t>
+          <t>75,8; 91,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,59; 98,47</t>
+          <t>86,99; 98,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>85,91; 98,61</t>
+          <t>86,45; 98,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>88,43; 99,01</t>
+          <t>88,44; 98,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>87,13; 98,88</t>
+          <t>85,23; 98,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>89,62; 98,2</t>
+          <t>90,43; 98,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>84,42; 94,15</t>
+          <t>84,91; 94,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>89,94; 98,05</t>
+          <t>89,56; 98,0</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas antibióticas fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10751</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19548</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6913</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8175</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30300</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11375</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>223; 977</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6751; 13457</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2845; 4462</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5705; 7199</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16221; 20524</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2309; 8732</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6643; 8175</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25278; 33128</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5690; 13194</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9497</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8539</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15574</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7415</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7044</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21522</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16912</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15583</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4377; 5948</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7289; 9497</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6767; 8539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13838; 15574</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5691; 7415</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5407; 7044</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19742; 21522</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14780; 16912</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13739; 15583</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7508</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7978</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6725</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3854</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11029</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14233</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>217; 949</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3981</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5950; 7508</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1614; 2904</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6323; 7978</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5162; 6725</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2457; 3854</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8157; 11959</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12549; 14233</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5711</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9696</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9201</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12101</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9455</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17812</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19149</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19289</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2117; 6659</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4642; 12127</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7477; 9201</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10346; 12101</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4976; 11321</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8198; 10088</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13478; 18760</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12457; 23447</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17362; 19289</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10784</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6502</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5973</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20226</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>205; 895</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5577; 10457</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1933; 3477</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3525; 5078</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8942; 10784</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4784; 6502</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4395; 5973</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16463; 21241</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8109; 9979</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2840</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3554</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5601</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9438</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6612</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5439</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2446; 3837</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>902; 3823</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2266; 3554</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1978; 6982</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2098; 3773</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2775</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5206; 10819</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3209; 7595</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2709; 6329</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10856</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9956</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18033</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5785</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12272</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>18167</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>16641</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>22228</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36200</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9153; 10856</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8091; 9956</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13181; 20325</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4257; 5785</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9099; 13219</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13687; 19173</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14888; 16641</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17995; 23175</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>30656; 39440</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26862</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>25657</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>10059</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>16973</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>25335</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>17840</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>43835</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>50992</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>27898</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22929; 28542</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>20568; 28761</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>8341; 10059</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13181; 19167</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>21358; 26304</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>15852; 17840</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>39031; 46689</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>44637; 54997</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>25930; 27898</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>56035</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>80888</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>64832</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>71216</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>96559</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>75164</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>127249</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>177448</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>139996</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>51613; 57852</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>71967; 87020</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>59252; 67077</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>64658; 73732</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>89603; 99474</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>67230; 77955</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>120679; 130909</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>166649; 184605</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>131643; 144053</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>